--- a/ARITHS 105 Rosters.xlsx
+++ b/ARITHS 105 Rosters.xlsx
@@ -5,20 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="03" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="a" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="BH" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Unit 1 Groups" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="07" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Sheet7" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">Sheet6!$C$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'Unit 1 Groups'!$C$1:$G$11</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="50">
   <si>
     <t xml:space="preserve">Student Name</t>
   </si>
@@ -74,21 +73,45 @@
     <t xml:space="preserve">Slytherin</t>
   </si>
   <si>
+    <t xml:space="preserve">Corner, Michae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cornfoot, Stephen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Crabbe, Vincent</t>
   </si>
   <si>
+    <t xml:space="preserve">Davis, Tracey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entwhistle, Kevin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Finch-Fletchley, Justin</t>
   </si>
   <si>
     <t xml:space="preserve">Finnigan, Seamus</t>
   </si>
   <si>
+    <t xml:space="preserve">Goldstein, Anthony</t>
+  </si>
+  <si>
     <t xml:space="preserve">Goyle, Gregory</t>
   </si>
   <si>
     <t xml:space="preserve">Granger, Hermoine</t>
   </si>
   <si>
+    <t xml:space="preserve">Greengrass, Daphne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jones, Megan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li, Su</t>
+  </si>
+  <si>
     <t xml:space="preserve">Longbottom, Neville</t>
   </si>
   <si>
@@ -128,109 +151,34 @@
     <t xml:space="preserve">Zabini, Blaise</t>
   </si>
   <si>
+    <t xml:space="preserve">Chaklboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group 5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Group 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Girard, Alexis R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamilton, Logan C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akers, Allie D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reed, Bryce E. (Sep 5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Justice, Lily T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martinez, Cheyenne N.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tucker, Serena R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samuel, Jackson K. (Sep 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratliff, Adron C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Young, Brittany G.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smith, Dominic C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rogers, Terry W.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bailey, Benjamin C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McNulty, Leeanna G.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asher, Colt A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grass, Tamara L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morton, Jonathan M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flanagan, Gunner P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kendrick, Valerie K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outlaw, Mason R. (Sep 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sampson, Cody D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lowe, Sierra F.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaklboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reed, Bryce E.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outlaw, Mason R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samuel, Jackson K.</t>
   </si>
 </sst>
 </file>
@@ -263,13 +211,6 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -279,6 +220,13 @@
     <font>
       <i val="true"/>
       <strike val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -335,24 +283,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -365,238 +317,311 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>13</v>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>5</v>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>11</v>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>11</v>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>11</v>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>5</v>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>13</v>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>8</v>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>13</v>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>8</v>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>11</v>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>11</v>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>8</v>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>11</v>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05416666666667" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -605,7 +630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -615,154 +640,154 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="0" t="s">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -771,7 +796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -781,186 +806,186 @@
       <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="0" t="s">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="0" t="s">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="0" t="s">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -969,7 +994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -979,194 +1004,194 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="0" t="s">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="0" t="s">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="0" t="s">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="0" t="s">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1175,135 +1200,228 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C1:G11"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="1.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="1.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="1.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.66"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="0" t="s">
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
-        <v>59</v>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05416666666667" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1312,282 +1430,321 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="2.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="2.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="2.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="2.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.568374790359199</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.679766339083241</v>
+      </c>
+      <c r="B4" s="0"/>
+      <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.265571856228763</v>
+      </c>
+      <c r="B5" s="0"/>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.620114433104394</v>
+      </c>
+      <c r="B6" s="0"/>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.231888577235923</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.553938947624365</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.740549091381017</v>
+      </c>
+      <c r="B9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.296031977746085</v>
+      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.246257853884551</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.922645498636128</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.885544830302558</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.0694463681449465</v>
+      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.574188855751215</v>
+      </c>
+      <c r="B12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.0298591012593602</v>
+      </c>
+      <c r="B13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.81500259297673</v>
+      </c>
+      <c r="B14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.406654032252405</v>
+      </c>
+      <c r="B15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.201785543080754</v>
+      </c>
+      <c r="B16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.462809597198741</v>
+      </c>
+      <c r="B17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.625509751677216</v>
+      </c>
+      <c r="B18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.362292441888697</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.497454528425404</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.155622647191237</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.501360507432809</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.493347560731037</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.301697216961054</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.97352717228009</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.107315870226148</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.570613930808947</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.261471138156238</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.997063874794434</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.944515869496488</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.479841797734065</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.595931178392779</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.258138144047912</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.460504142383523</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.937232501204164</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.19177917294215</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.49710102462627</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.331314768269298</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.459581879972491</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.731192546109461</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.589947218303369</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.965696175254598</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <f aca="true">RAND()</f>
-        <v>0.982395239035731</v>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <f aca="true">RAND()</f>
+        <v>0.668221617641754</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.22083333333333" bottom="0.7875" header="0.7875" footer="0.511805555555555"/>
-  <pageSetup paperSize="75" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;"Times New Roman,Regular"&amp;12MTH 113c
-Fall 2021&amp;C&amp;"Times New Roman,Regular"&amp;12Precaluclus Algebra
-Unit 2 Teams&amp;R&amp;"Times New Roman,Regular"&amp;12UPIKE
-HFrancis</oddHeader>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1597,11 +1754,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
